--- a/Dataset 3 x10000 19-21.xlsx
+++ b/Dataset 3 x10000 19-21.xlsx
@@ -349,8 +349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
